--- a/biology/Botanique/Tillandsia_dependens/Tillandsia_dependens.xlsx
+++ b/biology/Botanique/Tillandsia_dependens/Tillandsia_dependens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia dependens Hieron. ex Mez est une plante de la famille des Bromeliaceae.
 L'épithète dependens signifie « pendant, pointant vers le sol » et se réfère à l'aspect de la tige florale.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia dependens Hieron. ex Mez in C.DC., Monogr. Phan. 9: 880, n° 247 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis caulem elongatissimum distiche vaginantibus, cylindrico-subulatis, apice obtusiusculis ; scapo pseudoaxillari, foliis satis breviore ; flore singulo, bractea apice lepidota, trinervia suffulto ; sepalis antico cum reliquis breviter, posticis inter sese peralte connatis ; petalis minutis. »
-Type : Mez[1] ne donne aucune information de type pour l'espèce elle-même. Cependant, il cite les types des deux variétés qu'il décrit conjointement (var. perusneoides et var perdordobensis), mais sans préciser quelle variété il considère comme la variété-type, de plus les deux types variétaux sont tous les deux tirés de l'herbier de Hieronymus. Aucune illustration n'est jointe au protologue. Aucun holotype n'est donc désigné explicitement pour Tillandsia dependens.
+Type : Mez ne donne aucune information de type pour l'espèce elle-même. Cependant, il cite les types des deux variétés qu'il décrit conjointement (var. perusneoides et var perdordobensis), mais sans préciser quelle variété il considère comme la variété-type, de plus les deux types variétaux sont tous les deux tirés de l'herbier de Hieronymus. Aucune illustration n'est jointe au protologue. Aucun holotype n'est donc désigné explicitement pour Tillandsia dependens.
 </t>
         </is>
       </c>
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia capillaris Ruiz &amp; Pav[2].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -576,10 +593,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia capillaris Ruiz &amp; Pav.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +629,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée ; épiphyte[1].
-Habitat : ?
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,13 +657,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Argentine[1]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée ; épiphyte.
+Habitat : ?
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -665,10 +691,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Argentine</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -691,18 +724,120 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia dependens var. dependens
-(autonyme)
-Tillandsia dependens f. dependens
-(autonyme)
-Tillandsia dependens var. percordobensis Mez
-Tillandsia dependens [var.] β. percordobensis Mez in C.DC., Monogr. Phan. 9: 881, n° 247 (1896)
-Diagnose originale[1] :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens var. dependens</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens f. dependens</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens var. percordobensis Mez</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia dependens [var.] β. percordobensis Mez in C.DC., Monogr. Phan. 9: 881, n° 247 (1896)
+Diagnose originale :
 « caulibus magis abbreviatis ; pedicellis manifestis, folia suprema subaequantibus. »
 Type :
 leg. Hieronymus, n° 352, 1876-01, pro "Tillandsia propinqua Gay" ; "Sierra de Cordoba, loco non indicato" ; Lectotypus B (B 10 0243347)
@@ -710,19 +845,89 @@
 Nb : bien que ces deux planches d'herbier soit étiquetées comme Lectotypus et Isolectotypus de ce taxon, Mez ne cite comme type qu'une seule collecte (Hieronymus 352) mais répartie dans plusieurs herbiers (Berlin étant le premier cité dans le protologue). Le statut nomenclatural de ces spécimens pourrait donc être considéré comme étant l'holotype et son isotype.
 Distribution :
  Argentine
-Córdoba[1]
+Córdoba
 Synonymie :
 Tillandsia dependens f. percordobensis (Mez) A.Cast.
-Tillandsia dependens f. percordobensis (Mez) A.Cast.
-Tillandsia dependens f. percordobensis (Mez) A.Cast., in Anales Mus. Argent. Ci. Nat. "Bernardino Rivadavia" 37: 500 (1933)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens f. percordobensis (Mez) A.Cast.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia dependens f. percordobensis (Mez) A.Cast., in Anales Mus. Argent. Ci. Nat. "Bernardino Rivadavia" 37: 500 (1933)
 Synonymie :
 [ basionyme ] Tillandsia dependens var. percordobensis Mez
-Tillandsia dependens var. perusneoides Mez
-Tillandsia dependens [var.] α. perusneoides Mez in C.DC., Monogr. Phan.' 9: 881, n° 247 (1896)
-Diagnose originale[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens var. perusneoides Mez</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia dependens [var.] α. perusneoides Mez in C.DC., Monogr. Phan.' 9: 881, n° 247 (1896)
+Diagnose originale :
 « caulibus perelongatis, pedicellis quam folia suprema permulto brevioribus. »
-Type : Mez[1] cite deux spécimens sans préciser lequel il choisit comme type. L'herbier de dépôt n'est pas précisé (très probablement l'herbier de Hieronymus à Berlin) :
-leg. Hieronymus, n° 781 ; « Argentinae prov. Cordoba, in Sierra Achala ad Cerro Campagni prope Rio del Catre[1] ».
+Type : Mez cite deux spécimens sans préciser lequel il choisit comme type. L'herbier de dépôt n'est pas précisé (très probablement l'herbier de Hieronymus à Berlin) :
+leg. Hieronymus, n° 781 ; « Argentinae prov. Cordoba, in Sierra Achala ad Cerro Campagni prope Rio del Catre ».
 leg. Hieronymus, n° 870 ; « prope Puerto Alegre ».
 leg Hieronymus, n° 781, 1877-01-30 ; « Argentina: An Felsen der Abhänge des Cerro Champaqui, nahe dem Rio del Catre, Sierra Achala, Prov. de Córdoba » Lectotypus B (B 10 0243344)
 leg Hieronymus, n° 781, 1877-01-30 ; « Argentina: An Felsen der Abhänge des Cerro Champaqui, nahe dem Rio del Catre; Sierra Achalá de Cordoba » ; Isolectotypus B (B 10 0243343)
@@ -731,16 +936,86 @@
 leg Hieronymus, n° 870, 1877-03-05 ; « Sierra Achala de Córdoba : en ... humectas cerca del Puerto Alegre » ; Syntypus B (B 10 0243346)
 Distribution :
  Argentine
-Córdoba[1]
-Rio Grande do Sul[1]
+Córdoba
+Rio Grande do Sul
 Synonymie :
 Tillandsia dependens f. perusneoides (Mez) A.Cast.
-Tillandsia dependens f. perusneoides (Mez) A.Cast.
-Tillandsia dependens f. perusneoides (Mez) A.Cast., in Anales Mus. Argent. Ci. Nat. "Bernardino Rivadavia" 37: 500 (1933) (pro « perusnioides »)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens f. perusneoides (Mez) A.Cast.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia dependens f. perusneoides (Mez) A.Cast., in Anales Mus. Argent. Ci. Nat. "Bernardino Rivadavia" 37: 500 (1933) (pro « perusnioides »)
 Synonymie :
 [ basionyme ] Tillandsia dependens var. perusneoides Mez
-Tillandsia dependens var. sanzinii Hicken
-Tillandsia dependens var. sanzinii Hicken, in Bol. Soc. Physis [Buenos Aires] 1: 388 (1914)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_dependens</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tillandsia dependens var. sanzinii Hicken</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia dependens var. sanzinii Hicken, in Bol. Soc. Physis [Buenos Aires] 1: 388 (1914)
 Diagnose originale : (à compléter)
 Type : leg. R. Sanzinii, n° 56, 1913-11-02 ; « Argentine. Mendoza » ; Holotypus SI.
 Synonymie :
